--- a/Projeto-GUFI/Projeto-Gufi-Fisico.xlsx
+++ b/Projeto-GUFI/Projeto-Gufi-Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\Senai\Sprint1_bd\Sprint1_bd\exercicios\Projeto-GUFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\Senai\Sprint1_bd\Sprint1_bd\Projeto-GUFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A1451-0F24-4A2F-AB9D-514D06FAA0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C28A82-5876-4EB2-80B8-5BAECA317766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A246242E-7FD3-4436-A88B-7530BA8FC412}"/>
   </bookViews>
@@ -407,6 +407,9 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,9 +423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,55 +441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>273939</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>189214</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC339CF2-742C-4E3B-A385-D8252C2ADC7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9610725" y="0"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +743,7 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +758,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -866,10 +817,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -938,12 +889,12 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1026,13 +977,13 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
@@ -1122,15 +1073,15 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1234,12 +1185,12 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1359,6 +1310,5 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
 </worksheet>
 </file>